--- a/results/itn_Run_2.xlsx
+++ b/results/itn_Run_2.xlsx
@@ -1143,7 +1143,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -5539,7 +5539,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -8063,7 +8063,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -10560,7 +10560,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -13096,7 +13096,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -14715,7 +14715,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -16472,7 +16472,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
